--- a/tom.xlsx
+++ b/tom.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>Blue and white small checked:</t>
+  </si>
+  <si>
+    <t>Blue short sleeved:</t>
+  </si>
+  <si>
+    <t>Blue subtle stripe</t>
+  </si>
+  <si>
+    <t>long sleeve white</t>
   </si>
 </sst>
 </file>
@@ -188,6 +197,50 @@
         <a:xfrm rot="5400000">
           <a:off x="52388" y="357186"/>
           <a:ext cx="2000250" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>29636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2333096" y="1095906"/>
+          <a:ext cx="3268134" cy="1838325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -462,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,44 +995,712 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="1">
+        <v>43404</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2">
+        <v>71</v>
+      </c>
+      <c r="D30" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A32" s="1">
+        <v>43406</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2">
+        <v>56</v>
+      </c>
+      <c r="D32" s="2">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2">
+        <v>53</v>
+      </c>
+      <c r="D33" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43408</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2">
+        <v>57</v>
+      </c>
+      <c r="D34" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43409</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="2">
+        <v>52</v>
+      </c>
+      <c r="D35" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43410</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2">
+        <v>60</v>
+      </c>
+      <c r="D36" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43411</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2">
+        <v>53</v>
+      </c>
+      <c r="D37" s="2">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43412</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44</v>
+      </c>
+      <c r="D38" s="2">
+        <v>34</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43413</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="2">
+        <v>40</v>
+      </c>
+      <c r="D39" s="2">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43414</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2">
+        <v>35</v>
+      </c>
+      <c r="D40" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43415</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>45</v>
+      </c>
+      <c r="D41">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43416</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>39</v>
+      </c>
+      <c r="D42">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43417</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>32</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43418</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>36</v>
+      </c>
+      <c r="D44">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43419</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>36</v>
+      </c>
+      <c r="D45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43420</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>46</v>
+      </c>
+      <c r="D46">
+        <v>31</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43421</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>53</v>
+      </c>
+      <c r="D47">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43422</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>39</v>
+      </c>
+      <c r="D48">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43423</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>42</v>
+      </c>
+      <c r="D49">
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43424</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>40</v>
+      </c>
+      <c r="D50">
+        <v>29</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43425</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>55</v>
+      </c>
+      <c r="D51">
+        <v>32</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43426</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>62</v>
+      </c>
+      <c r="D52">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43427</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>49</v>
+      </c>
+      <c r="D53">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43428</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>63</v>
+      </c>
+      <c r="D54">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43429</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>61</v>
+      </c>
+      <c r="D55">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43430</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>33</v>
+      </c>
+      <c r="D56">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43431</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>30</v>
+      </c>
+      <c r="D57">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43432</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>36</v>
+      </c>
+      <c r="D58">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43433</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>54</v>
+      </c>
+      <c r="D59">
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43434</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>53</v>
+      </c>
+      <c r="D60">
+        <v>47</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>67</v>
+      </c>
+      <c r="D61">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43436</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>56</v>
+      </c>
+      <c r="D62">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43437</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>38</v>
+      </c>
+      <c r="D63">
+        <v>30</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43438</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>35</v>
+      </c>
+      <c r="D64">
+        <v>26</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43439</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>44</v>
+      </c>
+      <c r="D65">
+        <v>32</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43440</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>39</v>
+      </c>
+      <c r="D66">
+        <v>22</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43441</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>31</v>
+      </c>
+      <c r="D67">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43442</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>31</v>
+      </c>
+      <c r="D68">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43443</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>38</v>
+      </c>
+      <c r="D69">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43444</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>39</v>
+      </c>
+      <c r="D70">
+        <v>24</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43445</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>53</v>
+      </c>
+      <c r="D71">
+        <v>37</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>43446</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>53</v>
+      </c>
+      <c r="D72">
+        <v>35</v>
+      </c>
+      <c r="E72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43447</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>49</v>
+      </c>
+      <c r="D73">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43448</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>47</v>
+      </c>
+      <c r="D74">
+        <v>38</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -989,17 +1710,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+  <dimension ref="A2:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
